--- a/hw3_precision_recall.xlsx
+++ b/hw3_precision_recall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharon\IdeaProjects\ir\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G3" sqref="E3:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,13 +408,13 @@
         <v>0.33333333999999998</v>
       </c>
       <c r="E3">
-        <v>0.55555560000000004</v>
+        <v>0.66666669999999995</v>
       </c>
       <c r="F3">
-        <v>0.71428572999999995</v>
+        <v>0.85714287</v>
       </c>
       <c r="G3">
-        <v>0.31250002999999998</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -428,13 +428,13 @@
         <v>0.15384613999999999</v>
       </c>
       <c r="E4">
-        <v>5.2631579999999997E-2</v>
+        <v>0.22222222</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.9999996999999997E-2</v>
+        <v>0.18181818999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -448,13 +448,13 @@
         <v>5.8823532999999997E-2</v>
       </c>
       <c r="E5">
-        <v>2.8571428999999999E-2</v>
+        <v>5.2631579999999997E-2</v>
       </c>
       <c r="F5">
         <v>0.25</v>
       </c>
       <c r="G5">
-        <v>2.5641026000000001E-2</v>
+        <v>4.3478259999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -468,13 +468,13 @@
         <v>2.8571429999999998E-2</v>
       </c>
       <c r="E6">
-        <v>2.6315789999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <v>0.2</v>
       </c>
       <c r="G6">
-        <v>2.3255814E-2</v>
+        <v>6.6666669999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.22222222</v>
+        <v>7.1428574999999994E-2</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.14285713</v>
+        <v>5.2631579999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -508,13 +508,13 @@
         <v>0.34782610000000003</v>
       </c>
       <c r="E8">
-        <v>0.32142857000000002</v>
+        <v>0.58333330000000005</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.77777779999999996</v>
       </c>
       <c r="G8">
-        <v>0.24324324999999999</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -528,13 +528,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.4390242999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2.3255814E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -551,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.33333333999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -568,13 +568,13 @@
         <v>0.27272728000000002</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="G11">
-        <v>0.33333333999999998</v>
+        <v>0.3846154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -588,13 +588,13 @@
         <v>0.42857142999999998</v>
       </c>
       <c r="E12">
-        <v>0.26086956</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.20689656000000001</v>
+        <v>0.42857142999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -608,13 +608,13 @@
         <v>0.15384613999999999</v>
       </c>
       <c r="E13">
-        <v>4.8780485999999998E-2</v>
+        <v>9.0909089999999998E-2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>4.6511627999999999E-2</v>
+        <v>7.6923069999999996E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.14285714999999999</v>
+        <v>0.57142859999999995</v>
       </c>
       <c r="G14">
-        <v>0.125</v>
+        <v>0.36363636999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -648,13 +648,13 @@
         <v>0.18181818999999999</v>
       </c>
       <c r="E15">
-        <v>8.108108E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.66666669999999995</v>
       </c>
       <c r="G15">
-        <v>7.4999999999999997E-2</v>
+        <v>0.18181818999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2.4390245000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,13 +688,13 @@
         <v>0.40000004</v>
       </c>
       <c r="E17">
-        <v>0.19047620000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F17">
         <v>0.8</v>
       </c>
       <c r="G17">
-        <v>0.15384616000000001</v>
+        <v>0.40000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -708,13 +708,13 @@
         <v>0.33333333999999998</v>
       </c>
       <c r="E18">
-        <v>8.108108E-2</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.66666669999999995</v>
       </c>
       <c r="G18">
-        <v>7.4999999999999997E-2</v>
+        <v>0.22222223999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <v>5.1282052000000002E-2</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.8780490000000003E-2</v>
+        <v>0.22222223999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.8823529999999999E-2</v>
+        <v>5.2631579999999997E-2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.5555552000000001E-2</v>
+        <v>4.9999996999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -768,13 +768,13 @@
         <v>0.20000002</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G21">
-        <v>0.16666665999999999</v>
+        <v>0.20000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>0.33333333999999998</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.33333333999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,13 +828,13 @@
         <v>0.2</v>
       </c>
       <c r="E24">
-        <v>4.8780485999999998E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.6511627999999999E-2</v>
+        <v>0.16666665999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -868,13 +868,13 @@
         <v>0.5</v>
       </c>
       <c r="E26">
-        <v>3.125E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.0303031000000001E-2</v>
+        <v>0.33333333999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -928,13 +928,13 @@
         <v>0.25</v>
       </c>
       <c r="E29">
-        <v>5.8823529999999999E-2</v>
+        <v>8.3333335999999994E-2</v>
       </c>
       <c r="F29">
-        <v>0.66666669999999995</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="G29">
-        <v>5.4054054999999997E-2</v>
+        <v>6.6666669999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.11111111</v>
+        <v>0.13333333999999999</v>
       </c>
       <c r="F30">
         <v>0.4</v>
       </c>
       <c r="G30">
-        <v>8.6956515999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G32">
-        <v>0.16666665999999999</v>
+        <v>0.28571429999999998</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.10714286000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>0.42857142999999998</v>
+        <v>0.14285714999999999</v>
       </c>
       <c r="G33">
-        <v>8.5714289999999999E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1028,13 +1028,13 @@
         <v>8.3333335999999994E-2</v>
       </c>
       <c r="E34">
-        <v>3.4482760000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.3333334999999999E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,13 +1068,13 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>2.6315789999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.5641026000000001E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1088,13 +1088,13 @@
         <v>0.25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.11111111</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="G41">
-        <v>9.9999993999999995E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1188,13 +1188,13 @@
         <v>0.38888887</v>
       </c>
       <c r="E42">
-        <v>0.26470589999999999</v>
+        <v>0.63636360000000003</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.77777779999999996</v>
       </c>
       <c r="G42">
-        <v>0.20930234</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,13 +1208,13 @@
         <v>0.11111111999999999</v>
       </c>
       <c r="E43">
-        <v>0.13513512999999999</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="F43">
-        <v>0.83333330000000005</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="G43">
-        <v>0.116279066</v>
+        <v>0.15384616000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1248,13 +1248,13 @@
         <v>0.33333333999999998</v>
       </c>
       <c r="E45">
-        <v>0.18181818999999999</v>
+        <v>0.66666669999999995</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0.15384613999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>9.0909089999999998E-2</v>
+        <v>0.22222223999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,13 +1288,13 @@
         <v>0.14285714999999999</v>
       </c>
       <c r="E47">
-        <v>9.6774189999999996E-2</v>
+        <v>8.3333335999999994E-2</v>
       </c>
       <c r="F47">
         <v>0.6</v>
       </c>
       <c r="G47">
-        <v>8.3333329999999997E-2</v>
+        <v>7.3170739999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1308,13 +1308,13 @@
         <v>0.3</v>
       </c>
       <c r="E48">
-        <v>0.51851849999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F48">
-        <v>0.77777779999999996</v>
+        <v>0.16666666999999999</v>
       </c>
       <c r="G48">
-        <v>0.31111109999999997</v>
+        <v>0.13636364000000001</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.13636364000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.33333333999999998</v>
       </c>
       <c r="G49">
-        <v>0.107142866</v>
+        <v>0.14285713</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>6.25E-2</v>
+        <v>0.16666666999999999</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>5.8823529999999999E-2</v>
+        <v>0.14285714999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,13 +1368,13 @@
         <v>0.35294115999999998</v>
       </c>
       <c r="E51">
-        <v>0.27586207000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G51">
-        <v>0.2162162</v>
+        <v>0.30769232000000002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.2</v>
+        <v>0.16666666999999999</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.66666669999999995</v>
       </c>
       <c r="G53">
-        <v>0.16666665999999999</v>
+        <v>0.13333333999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1448,13 +1448,13 @@
         <v>0.5</v>
       </c>
       <c r="E55">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>0.4</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0.28571429999999998</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1468,13 +1468,13 @@
         <v>9.0909089999999998E-2</v>
       </c>
       <c r="E56">
-        <v>3.3333334999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1488,13 +1488,13 @@
         <v>0.3</v>
       </c>
       <c r="E57">
-        <v>0.33333333999999998</v>
+        <v>0.625</v>
       </c>
       <c r="F57">
-        <v>0.66666669999999995</v>
+        <v>0.41666666000000002</v>
       </c>
       <c r="G57">
-        <v>0.22222223999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F59">
         <v>0.5</v>
       </c>
       <c r="G59">
-        <v>0.14285714999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,13 +1548,13 @@
         <v>0.21428572000000001</v>
       </c>
       <c r="E60">
-        <v>0.27586207000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G60">
-        <v>0.2162162</v>
+        <v>0.33333333999999998</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1568,13 +1568,13 @@
         <v>0.14285714999999999</v>
       </c>
       <c r="E61">
-        <v>0.10526315999999999</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>9.5238100000000006E-2</v>
+        <v>0.22222223999999999</v>
       </c>
     </row>
   </sheetData>

--- a/hw3_precision_recall.xlsx
+++ b/hw3_precision_recall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharon\IdeaProjects\ir\hw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aharon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Precision</t>
   </si>
@@ -40,12 +40,18 @@
   <si>
     <t>Improved</t>
   </si>
+  <si>
+    <t>עמודה1</t>
+  </si>
+  <si>
+    <t>עמודה2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +60,47 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,16 +112,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -92,6 +214,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="E1:G61" totalsRowShown="0" headerRowDxfId="1" dataCellStyle="טוב">
+  <autoFilter ref="E1:G61"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="עמודה1" dataCellStyle="טוב"/>
+    <tableColumn id="2" name="Improved" dataCellStyle="טוב"/>
+    <tableColumn id="3" name="עמודה2" dataCellStyle="טוב"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="טבלה3" displayName="טבלה3" ref="A1:C61" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C61"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="עמודה1"/>
+    <tableColumn id="2" name="Basic"/>
+    <tableColumn id="3" name="עמודה2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,41 +505,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="E3:G61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -407,14 +568,14 @@
       <c r="C3">
         <v>0.33333333999999998</v>
       </c>
-      <c r="E3">
-        <v>0.66666669999999995</v>
+      <c r="E3" s="1">
+        <v>0.75</v>
       </c>
       <c r="F3">
         <v>0.85714287</v>
       </c>
-      <c r="G3">
-        <v>0.375</v>
+      <c r="G3" s="1">
+        <v>0.39999997999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -427,14 +588,14 @@
       <c r="C4">
         <v>0.15384613999999999</v>
       </c>
-      <c r="E4">
-        <v>0.22222222</v>
+      <c r="E4" s="1">
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.18181818999999999</v>
+      <c r="G4" s="1">
+        <v>0.16666665999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -447,14 +608,14 @@
       <c r="C5">
         <v>5.8823532999999997E-2</v>
       </c>
-      <c r="E5">
-        <v>5.2631579999999997E-2</v>
+      <c r="E5" s="2">
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="F5">
         <v>0.25</v>
       </c>
-      <c r="G5">
-        <v>4.3478259999999998E-2</v>
+      <c r="G5" s="2">
+        <v>4.5454546999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,14 +628,14 @@
       <c r="C6">
         <v>2.8571429999999998E-2</v>
       </c>
-      <c r="E6">
-        <v>0.1</v>
+      <c r="E6" s="1">
+        <v>8.3333335999999994E-2</v>
       </c>
       <c r="F6">
         <v>0.2</v>
       </c>
-      <c r="G6">
-        <v>6.6666669999999997E-2</v>
+      <c r="G6" s="1">
+        <v>5.8823532999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -488,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.1428574999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5.2631579999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -507,14 +668,14 @@
       <c r="C8">
         <v>0.34782610000000003</v>
       </c>
-      <c r="E8">
-        <v>0.58333330000000005</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
         <v>0.77777779999999996</v>
       </c>
-      <c r="G8">
-        <v>0.3333333</v>
+      <c r="F8" s="2">
+        <v>0.77777779999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.38888887</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -547,13 +708,13 @@
       <c r="C10">
         <v>0.22222223999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -567,14 +728,14 @@
       <c r="C11">
         <v>0.27272728000000002</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.625</v>
-      </c>
-      <c r="G11">
-        <v>0.3846154</v>
+      <c r="E11" s="2">
+        <v>0.85714287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.39999997999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -607,14 +768,14 @@
       <c r="C13">
         <v>0.15384613999999999</v>
       </c>
-      <c r="E13">
-        <v>9.0909089999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>7.6923069999999996E-2</v>
+      <c r="E13" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.57142859999999995</v>
+        <v>0.71428572999999995</v>
       </c>
       <c r="G14">
-        <v>0.36363636999999999</v>
+        <v>0.4166667</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,14 +808,14 @@
       <c r="C15">
         <v>0.18181818999999999</v>
       </c>
-      <c r="E15">
-        <v>0.25</v>
-      </c>
-      <c r="F15">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="G15">
-        <v>0.18181818999999999</v>
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.33333333999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,14 +868,14 @@
       <c r="C18">
         <v>0.33333333999999998</v>
       </c>
-      <c r="E18">
-        <v>0.33333333999999998</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <v>0.28571429999999998</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.66666669999999995</v>
       </c>
-      <c r="G18">
-        <v>0.22222223999999999</v>
+      <c r="G18" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,14 +888,14 @@
       <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>0.28571429999999998</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.22222223999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -748,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.2631579999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>4.9999996999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -767,14 +928,14 @@
       <c r="C21">
         <v>0.20000002</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.4</v>
       </c>
-      <c r="F21">
-        <v>0.4</v>
-      </c>
-      <c r="G21">
-        <v>0.20000002</v>
+      <c r="G21" s="1">
+        <v>0.22222223999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,13 +968,13 @@
       <c r="C23">
         <v>0.33333333999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0.5</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -828,13 +989,13 @@
         <v>0.2</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0.16666666999999999</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.16666665999999999</v>
+        <v>0.14285714999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -927,14 +1088,14 @@
       <c r="C29">
         <v>0.25</v>
       </c>
-      <c r="E29">
-        <v>8.3333335999999994E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.33333333999999998</v>
-      </c>
-      <c r="G29">
-        <v>6.6666669999999997E-2</v>
+      <c r="E29" s="2">
+        <v>0.11764706</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -947,14 +1108,14 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>0.13333333999999999</v>
-      </c>
-      <c r="F30">
-        <v>0.4</v>
-      </c>
-      <c r="G30">
-        <v>0.1</v>
+      <c r="E30" s="1">
+        <v>0.18181818999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.14814815000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -987,13 +1148,13 @@
       <c r="C32">
         <v>0.22222223999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32">
         <v>0.4</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.28571429999999998</v>
       </c>
     </row>
@@ -1007,14 +1168,14 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>0.05</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="1">
+        <v>7.1428574999999994E-2</v>
+      </c>
+      <c r="F33" s="1">
         <v>0.14285714999999999</v>
       </c>
-      <c r="G33">
-        <v>3.7037037000000002E-2</v>
+      <c r="G33" s="1">
+        <v>4.7619050000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,14 +1188,14 @@
       <c r="C34">
         <v>8.3333335999999994E-2</v>
       </c>
-      <c r="E34">
-        <v>0.25</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="1">
         <v>0.2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.16666665999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,13 +1229,13 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1171,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.33333333999999998</v>
+        <v>0.44444444999999999</v>
       </c>
       <c r="G41">
-        <v>0.25</v>
+        <v>0.30769232000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,14 +1348,14 @@
       <c r="C42">
         <v>0.38888887</v>
       </c>
-      <c r="E42">
-        <v>0.63636360000000003</v>
+      <c r="E42" s="1">
+        <v>0.875</v>
       </c>
       <c r="F42">
         <v>0.77777779999999996</v>
       </c>
-      <c r="G42">
-        <v>0.35</v>
+      <c r="G42" s="1">
+        <v>0.41176469999999998</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1207,14 +1368,14 @@
       <c r="C43">
         <v>0.11111111999999999</v>
       </c>
-      <c r="E43">
-        <v>0.28571429999999998</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.33333333999999998</v>
       </c>
-      <c r="G43">
-        <v>0.15384616000000001</v>
+      <c r="G43" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,13 +1408,13 @@
       <c r="C45">
         <v>0.33333333999999998</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>0.66666669999999995</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -1267,14 +1428,14 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0.28571429999999998</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0.22222223999999999</v>
+      <c r="E46" s="1">
+        <v>0.22222222</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.18181818999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,14 +1448,14 @@
       <c r="C47">
         <v>0.14285714999999999</v>
       </c>
-      <c r="E47">
-        <v>8.3333335999999994E-2</v>
-      </c>
-      <c r="F47">
-        <v>0.6</v>
-      </c>
-      <c r="G47">
-        <v>7.3170739999999998E-2</v>
+      <c r="E47" s="2">
+        <v>0.12903224999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.11111111</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1307,14 +1468,14 @@
       <c r="C48">
         <v>0.3</v>
       </c>
-      <c r="E48">
-        <v>0.75</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F48" s="2">
         <v>0.16666666999999999</v>
       </c>
-      <c r="G48">
-        <v>0.13636364000000001</v>
+      <c r="G48" s="2">
+        <v>0.13043478</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1327,13 +1488,13 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0.25</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0.33333333999999998</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>0.14285713</v>
       </c>
     </row>
@@ -1347,14 +1508,14 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>0.16666666999999999</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0.14285714999999999</v>
+      <c r="E50" s="1">
+        <v>0.11111111</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.9999993999999995E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,13 +1529,13 @@
         <v>0.35294115999999998</v>
       </c>
       <c r="E51">
-        <v>0.8</v>
-      </c>
-      <c r="F51">
-        <v>0.5</v>
-      </c>
-      <c r="G51">
-        <v>0.30769232000000002</v>
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.28571426999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1407,14 +1568,14 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>0.16666666999999999</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="1">
+        <v>0.15384616000000001</v>
+      </c>
+      <c r="F53" s="1">
         <v>0.66666669999999995</v>
       </c>
-      <c r="G53">
-        <v>0.13333333999999999</v>
+      <c r="G53" s="1">
+        <v>0.12500000999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1447,13 +1608,13 @@
       <c r="C55">
         <v>0.5</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>0.66666669999999995</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -1467,14 +1628,14 @@
       <c r="C56">
         <v>9.0909089999999998E-2</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+      <c r="E56" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.14285714999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1487,14 +1648,14 @@
       <c r="C57">
         <v>0.3</v>
       </c>
-      <c r="E57">
-        <v>0.625</v>
-      </c>
-      <c r="F57">
-        <v>0.41666666000000002</v>
-      </c>
-      <c r="G57">
-        <v>0.25</v>
+      <c r="E57" s="2">
+        <v>0.63636360000000003</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.58333330000000005</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.30434778000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1527,13 +1688,13 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="E59">
-        <v>0.5</v>
-      </c>
-      <c r="F59">
-        <v>0.5</v>
-      </c>
-      <c r="G59">
+      <c r="E59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -1547,13 +1708,13 @@
       <c r="C60">
         <v>0.21428572000000001</v>
       </c>
-      <c r="E60">
-        <v>0.6</v>
-      </c>
-      <c r="F60">
-        <v>0.75</v>
-      </c>
-      <c r="G60">
+      <c r="E60" s="1">
+        <v>0.71428572999999995</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="G60" s="1">
         <v>0.33333333999999998</v>
       </c>
     </row>
@@ -1567,17 +1728,27 @@
       <c r="C61">
         <v>0.14285714999999999</v>
       </c>
-      <c r="E61">
-        <v>0.28571429999999998</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>0.22222223999999999</v>
+      <c r="E61" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.16666666999999999</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>$A$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/hw3_precision_recall.xlsx
+++ b/hw3_precision_recall.xlsx
@@ -128,7 +128,7 @@
     <cellStyle name="טוב" xfId="1" builtinId="26"/>
     <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -162,36 +162,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -505,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:G61"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,13 +570,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.6923080000000005E-2</v>
+        <v>4.3478259999999998E-2</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>5.8823532999999997E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="E5" s="2">
         <v>5.5555555999999999E-2</v>
@@ -660,13 +630,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.57142859999999995</v>
+        <v>0.39130433999999997</v>
       </c>
       <c r="B8">
-        <v>0.88888889999999998</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.34782610000000003</v>
+        <v>0.28125</v>
       </c>
       <c r="E8" s="1">
         <v>0.77777779999999996</v>
@@ -760,13 +730,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>0.22222222</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0.18181818999999999</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.15384613999999999</v>
       </c>
       <c r="E13" s="2">
         <v>0.125</v>
@@ -800,13 +770,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.25</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="B15">
         <v>0.66666669999999995</v>
       </c>
       <c r="C15">
-        <v>0.18181818999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="1">
         <v>0.5</v>
@@ -940,13 +910,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0</v>
+        <v>9.6153850000000006E-3</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>9.5238100000000006E-3</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -980,13 +950,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.25</v>
+        <v>0.28571429999999998</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.22222223999999999</v>
       </c>
       <c r="E24">
         <v>0.16666666999999999</v>
@@ -1220,13 +1190,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1360,13 +1330,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.16666666999999999</v>
+        <v>0.23076922999999999</v>
       </c>
       <c r="B43">
-        <v>0.33333333999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
-        <v>0.11111111999999999</v>
+        <v>0.15789475</v>
       </c>
       <c r="E43" s="1">
         <v>0.5</v>
@@ -1460,13 +1430,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.75</v>
+        <v>0.69230769999999997</v>
       </c>
       <c r="B48">
         <v>0.5</v>
       </c>
       <c r="C48">
-        <v>0.3</v>
+        <v>0.29032257</v>
       </c>
       <c r="E48" s="2">
         <v>0.6</v>
@@ -1620,13 +1590,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.11111111</v>
+        <v>0.125</v>
       </c>
       <c r="B56">
         <v>0.5</v>
       </c>
       <c r="C56">
-        <v>9.0909089999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E56" s="1">
         <v>0.2</v>
@@ -1700,13 +1670,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B60">
         <v>0.375</v>
       </c>
       <c r="C60">
-        <v>0.21428572000000001</v>
+        <v>0.23076922999999999</v>
       </c>
       <c r="E60" s="1">
         <v>0.71428572999999995</v>
@@ -1740,7 +1710,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>$A$3</formula>
     </cfRule>
   </conditionalFormatting>
